--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit2-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit2-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Slit2</t>
+  </si>
+  <si>
+    <t>Robo4</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Slit2</t>
-  </si>
-  <si>
-    <t>Robo4</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H2">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I2">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J2">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.00350066666667</v>
+        <v>42.52140666666667</v>
       </c>
       <c r="N2">
-        <v>117.010502</v>
+        <v>127.56422</v>
       </c>
       <c r="O2">
-        <v>0.98996865118361</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="P2">
-        <v>0.9899686511836098</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="Q2">
-        <v>2.881370610583111</v>
+        <v>9.93073278897778</v>
       </c>
       <c r="R2">
-        <v>25.932335495248</v>
+        <v>89.3765951008</v>
       </c>
       <c r="S2">
-        <v>0.023066268739951</v>
+        <v>0.07081022989627068</v>
       </c>
       <c r="T2">
-        <v>0.023066268739951</v>
+        <v>0.07081022989627067</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H3">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I3">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J3">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.01635</v>
       </c>
       <c r="O3">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="P3">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="Q3">
-        <v>0.0004026169333333333</v>
+        <v>0.001272829333333333</v>
       </c>
       <c r="R3">
-        <v>0.0036235524</v>
+        <v>0.011455464</v>
       </c>
       <c r="S3">
-        <v>3.223073890394888E-06</v>
+        <v>9.075799301747979E-06</v>
       </c>
       <c r="T3">
-        <v>3.223073890394888E-06</v>
+        <v>9.075799301747977E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H4">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I4">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J4">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,22 +688,22 @@
         <v>0.08488800000000001</v>
       </c>
       <c r="O4">
-        <v>0.0007181958663990202</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="P4">
-        <v>0.0007181958663990201</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="Q4">
-        <v>0.002090357568</v>
+        <v>0.006608436480000001</v>
       </c>
       <c r="R4">
-        <v>0.018813218112</v>
+        <v>0.05947592832000001</v>
       </c>
       <c r="S4">
-        <v>1.673396308304839E-05</v>
+        <v>4.712088386096529E-05</v>
       </c>
       <c r="T4">
-        <v>1.673396308304839E-05</v>
+        <v>4.712088386096528E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H5">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I5">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J5">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2878673333333333</v>
+        <v>0.02040566666666667</v>
       </c>
       <c r="N5">
-        <v>0.863602</v>
+        <v>0.06121699999999999</v>
       </c>
       <c r="O5">
-        <v>0.007306514308429066</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="P5">
-        <v>0.007306514308429065</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="Q5">
-        <v>0.02126610329422222</v>
+        <v>0.004765675431111111</v>
       </c>
       <c r="R5">
-        <v>0.191394929648</v>
+        <v>0.04289107888</v>
       </c>
       <c r="S5">
-        <v>0.0001702417772411502</v>
+        <v>3.398123583211658E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001702417772411502</v>
+        <v>3.398123583211657E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H6">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I6">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J6">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07360900000000001</v>
+        <v>0.07801066666666666</v>
       </c>
       <c r="N6">
-        <v>0.220827</v>
+        <v>0.234032</v>
       </c>
       <c r="O6">
-        <v>0.001868309285049671</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="P6">
-        <v>0.00186830928504967</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="Q6">
-        <v>0.005437840338666667</v>
+        <v>0.01821913116444444</v>
       </c>
       <c r="R6">
-        <v>0.048940563048</v>
+        <v>0.16397218048</v>
       </c>
       <c r="S6">
-        <v>4.353160477028942E-05</v>
+        <v>0.0001299099365251794</v>
       </c>
       <c r="T6">
-        <v>4.353160477028942E-05</v>
+        <v>0.0001299099365251793</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -853,13 +853,13 @@
         <v>2.538883</v>
       </c>
       <c r="H7">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I7">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J7">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.00350066666667</v>
+        <v>42.52140666666667</v>
       </c>
       <c r="N7">
-        <v>117.010502</v>
+        <v>127.56422</v>
       </c>
       <c r="O7">
-        <v>0.98996865118361</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="P7">
-        <v>0.9899686511836098</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="Q7">
-        <v>99.02532478308868</v>
+        <v>107.9568765220867</v>
       </c>
       <c r="R7">
-        <v>891.2279230477981</v>
+        <v>971.61188869878</v>
       </c>
       <c r="S7">
-        <v>0.7927285525569392</v>
+        <v>0.7697771562131767</v>
       </c>
       <c r="T7">
-        <v>0.792728552556939</v>
+        <v>0.7697771562131765</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,13 +915,13 @@
         <v>2.538883</v>
       </c>
       <c r="H8">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I8">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J8">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.01635</v>
       </c>
       <c r="O8">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="P8">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="Q8">
         <v>0.01383691235</v>
@@ -948,10 +948,10 @@
         <v>0.12453221115</v>
       </c>
       <c r="S8">
-        <v>0.0001107687909441321</v>
+        <v>9.866290488105078E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001107687909441321</v>
+        <v>9.866290488105077E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,13 +977,13 @@
         <v>2.538883</v>
       </c>
       <c r="H9">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I9">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J9">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -998,22 +998,22 @@
         <v>0.08488800000000001</v>
       </c>
       <c r="O9">
-        <v>0.0007181958663990202</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="P9">
-        <v>0.0007181958663990201</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="Q9">
-        <v>0.07184023336800001</v>
+        <v>0.07184023336799999</v>
       </c>
       <c r="R9">
-        <v>0.6465621003120001</v>
+        <v>0.646562100312</v>
       </c>
       <c r="S9">
-        <v>0.0005751034327624152</v>
+        <v>0.000512250560828296</v>
       </c>
       <c r="T9">
-        <v>0.0005751034327624151</v>
+        <v>0.0005122505608282959</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,43 +1039,43 @@
         <v>2.538883</v>
       </c>
       <c r="H10">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I10">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J10">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2878673333333333</v>
+        <v>0.02040566666666667</v>
       </c>
       <c r="N10">
-        <v>0.863602</v>
+        <v>0.06121699999999999</v>
       </c>
       <c r="O10">
-        <v>0.007306514308429066</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="P10">
-        <v>0.007306514308429065</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="Q10">
-        <v>0.7308614788553334</v>
+        <v>0.05180760020366666</v>
       </c>
       <c r="R10">
-        <v>6.577753309698</v>
+        <v>0.4662684018329999</v>
       </c>
       <c r="S10">
-        <v>0.005850773663421064</v>
+        <v>0.0003694096053885802</v>
       </c>
       <c r="T10">
-        <v>0.005850773663421063</v>
+        <v>0.0003694096053885802</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1101,43 +1101,43 @@
         <v>2.538883</v>
       </c>
       <c r="H11">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I11">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J11">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.07360900000000001</v>
+        <v>0.07801066666666666</v>
       </c>
       <c r="N11">
-        <v>0.220827</v>
+        <v>0.234032</v>
       </c>
       <c r="O11">
-        <v>0.001868309285049671</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="P11">
-        <v>0.00186830928504967</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="Q11">
-        <v>0.186884638747</v>
+        <v>0.1980599554186666</v>
       </c>
       <c r="R11">
-        <v>1.681961748723</v>
+        <v>1.782539598768</v>
       </c>
       <c r="S11">
-        <v>0.001496069712404885</v>
+        <v>0.001412249355053338</v>
       </c>
       <c r="T11">
-        <v>0.001496069712404885</v>
+        <v>0.001412249355053338</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H12">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I12">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J12">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>39.00350066666667</v>
+        <v>42.52140666666667</v>
       </c>
       <c r="N12">
-        <v>117.010502</v>
+        <v>127.56422</v>
       </c>
       <c r="O12">
-        <v>0.98996865118361</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="P12">
-        <v>0.9899686511836098</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="Q12">
-        <v>0.0009750875166666666</v>
+        <v>21.92216633544</v>
       </c>
       <c r="R12">
-        <v>0.00877578765</v>
+        <v>197.29949701896</v>
       </c>
       <c r="S12">
-        <v>7.805879126341574E-06</v>
+        <v>0.156314108034376</v>
       </c>
       <c r="T12">
-        <v>7.805879126341573E-06</v>
+        <v>0.1563141080343759</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H13">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I13">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J13">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.01635</v>
       </c>
       <c r="O13">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="P13">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="Q13">
-        <v>1.3625E-07</v>
+        <v>0.0028097802</v>
       </c>
       <c r="R13">
-        <v>1.22625E-06</v>
+        <v>0.0252880218</v>
       </c>
       <c r="S13">
-        <v>1.090723666117463E-09</v>
+        <v>2.0034894317247E-05</v>
       </c>
       <c r="T13">
-        <v>1.090723666117463E-09</v>
+        <v>2.0034894317247E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H14">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I14">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J14">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.08488800000000001</v>
       </c>
       <c r="O14">
-        <v>0.0007181958663990202</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="P14">
-        <v>0.0007181958663990201</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="Q14">
-        <v>7.074E-07</v>
+        <v>0.014588172576</v>
       </c>
       <c r="R14">
-        <v>6.3666E-06</v>
+        <v>0.131293553184</v>
       </c>
       <c r="S14">
-        <v>5.662957221368758E-09</v>
+        <v>0.0001040197008441874</v>
       </c>
       <c r="T14">
-        <v>5.662957221368757E-09</v>
+        <v>0.0001040197008441874</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H15">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I15">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J15">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.2878673333333333</v>
+        <v>0.02040566666666667</v>
       </c>
       <c r="N15">
-        <v>0.863602</v>
+        <v>0.06121699999999999</v>
       </c>
       <c r="O15">
-        <v>0.007306514308429066</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="P15">
-        <v>0.007306514308429065</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="Q15">
-        <v>7.196683333333332E-06</v>
+        <v>0.010520263884</v>
       </c>
       <c r="R15">
-        <v>6.477014999999999E-05</v>
+        <v>0.09468237495599999</v>
       </c>
       <c r="S15">
-        <v>5.761169048968644E-08</v>
+        <v>7.501383030085075E-05</v>
       </c>
       <c r="T15">
-        <v>5.761169048968643E-08</v>
+        <v>7.501383030085073E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,371 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.515556</v>
+      </c>
+      <c r="H16">
+        <v>1.546668</v>
+      </c>
+      <c r="I16">
+        <v>0.1567999536088813</v>
+      </c>
+      <c r="J16">
+        <v>0.1567999536088813</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G16">
-        <v>2.5E-05</v>
-      </c>
-      <c r="H16">
-        <v>7.499999999999999E-05</v>
-      </c>
-      <c r="I16">
-        <v>7.884976071725946E-06</v>
-      </c>
-      <c r="J16">
-        <v>7.884976071725946E-06</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M16">
-        <v>0.07360900000000001</v>
+        <v>0.07801066666666666</v>
       </c>
       <c r="N16">
-        <v>0.220827</v>
+        <v>0.234032</v>
       </c>
       <c r="O16">
-        <v>0.001868309285049671</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="P16">
-        <v>0.00186830928504967</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="Q16">
-        <v>1.840225E-06</v>
+        <v>0.04021886726399999</v>
       </c>
       <c r="R16">
-        <v>1.6562025E-05</v>
+        <v>0.361969805376</v>
       </c>
       <c r="S16">
-        <v>1.473157400720006E-08</v>
+        <v>0.0002867771490430551</v>
       </c>
       <c r="T16">
-        <v>1.473157400720006E-08</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.557804</v>
-      </c>
-      <c r="H17">
-        <v>1.673412</v>
-      </c>
-      <c r="I17">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J17">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>39.00350066666667</v>
-      </c>
-      <c r="N17">
-        <v>117.010502</v>
-      </c>
-      <c r="O17">
-        <v>0.98996865118361</v>
-      </c>
-      <c r="P17">
-        <v>0.9899686511836098</v>
-      </c>
-      <c r="Q17">
-        <v>21.75630868586933</v>
-      </c>
-      <c r="R17">
-        <v>195.806778172824</v>
-      </c>
-      <c r="S17">
-        <v>0.1741660240075934</v>
-      </c>
-      <c r="T17">
-        <v>0.1741660240075934</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.557804</v>
-      </c>
-      <c r="H18">
-        <v>1.673412</v>
-      </c>
-      <c r="I18">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J18">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.00545</v>
-      </c>
-      <c r="N18">
-        <v>0.01635</v>
-      </c>
-      <c r="O18">
-        <v>0.0001383293565123925</v>
-      </c>
-      <c r="P18">
-        <v>0.0001383293565123925</v>
-      </c>
-      <c r="Q18">
-        <v>0.0030400318</v>
-      </c>
-      <c r="R18">
-        <v>0.0273602862</v>
-      </c>
-      <c r="S18">
-        <v>2.433640095419941E-05</v>
-      </c>
-      <c r="T18">
-        <v>2.433640095419941E-05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.557804</v>
-      </c>
-      <c r="H19">
-        <v>1.673412</v>
-      </c>
-      <c r="I19">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J19">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.028296</v>
-      </c>
-      <c r="N19">
-        <v>0.08488800000000001</v>
-      </c>
-      <c r="O19">
-        <v>0.0007181958663990202</v>
-      </c>
-      <c r="P19">
-        <v>0.0007181958663990201</v>
-      </c>
-      <c r="Q19">
-        <v>0.015783621984</v>
-      </c>
-      <c r="R19">
-        <v>0.142052597856</v>
-      </c>
-      <c r="S19">
-        <v>0.0001263528075963352</v>
-      </c>
-      <c r="T19">
-        <v>0.0001263528075963351</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.557804</v>
-      </c>
-      <c r="H20">
-        <v>1.673412</v>
-      </c>
-      <c r="I20">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J20">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.2878673333333333</v>
-      </c>
-      <c r="N20">
-        <v>0.863602</v>
-      </c>
-      <c r="O20">
-        <v>0.007306514308429066</v>
-      </c>
-      <c r="P20">
-        <v>0.007306514308429065</v>
-      </c>
-      <c r="Q20">
-        <v>0.1605735500026667</v>
-      </c>
-      <c r="R20">
-        <v>1.445161950024</v>
-      </c>
-      <c r="S20">
-        <v>0.001285441256076362</v>
-      </c>
-      <c r="T20">
-        <v>0.001285441256076362</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.557804</v>
-      </c>
-      <c r="H21">
-        <v>1.673412</v>
-      </c>
-      <c r="I21">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J21">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.07360900000000001</v>
-      </c>
-      <c r="N21">
-        <v>0.220827</v>
-      </c>
-      <c r="O21">
-        <v>0.001868309285049671</v>
-      </c>
-      <c r="P21">
-        <v>0.00186830928504967</v>
-      </c>
-      <c r="Q21">
-        <v>0.041059394636</v>
-      </c>
-      <c r="R21">
-        <v>0.369534551724</v>
-      </c>
-      <c r="S21">
-        <v>0.000328693236300489</v>
-      </c>
-      <c r="T21">
-        <v>0.0003286932363004889</v>
+        <v>0.000286777149043055</v>
       </c>
     </row>
   </sheetData>
